--- a/src/main/java/com/mvnProject/testdata/Testdata.xlsx
+++ b/src/main/java/com/mvnProject/testdata/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="15300" windowHeight="5592"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15300" windowHeight="5595"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -27,24 +27,12 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>Puskar</t>
-  </si>
-  <si>
-    <t>Suwal</t>
-  </si>
-  <si>
     <t>Mr.</t>
   </si>
   <si>
     <t>Mrs.</t>
   </si>
   <si>
-    <t>Jeny</t>
-  </si>
-  <si>
-    <t>Munankarmi</t>
-  </si>
-  <si>
     <t>TestCaseName</t>
   </si>
   <si>
@@ -52,6 +40,18 @@
   </si>
   <si>
     <t>TestCaseName_2</t>
+  </si>
+  <si>
+    <t>Lawus</t>
+  </si>
+  <si>
+    <t>Rak</t>
+  </si>
+  <si>
+    <t>Yne</t>
+  </si>
+  <si>
+    <t>Imirm</t>
   </si>
 </sst>
 </file>
@@ -414,17 +414,17 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -438,30 +438,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -475,7 +475,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -487,7 +487,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
